--- a/src/main/resources/excel/奖惩表.xlsx
+++ b/src/main/resources/excel/奖惩表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CWH\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\javaworkspace\studentManage\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>学号</t>
   </si>
@@ -41,6 +41,14 @@
   </si>
   <si>
     <t>二等奖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -95,8 +103,36 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -371,37 +407,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.5" customWidth="1"/>
-    <col min="2" max="2" width="21.125" customWidth="1"/>
+    <col min="1" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>435400</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>4</v>
       </c>
     </row>

--- a/src/main/resources/excel/奖惩表.xlsx
+++ b/src/main/resources/excel/奖惩表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\javaworkspace\studentManage\src\main\resources\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XDJ\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,31 +24,68 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>学号</t>
   </si>
   <si>
-    <t>获奖介绍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获奖类型</t>
-  </si>
-  <si>
-    <t>比骚大赛二等奖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二等奖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>陈</t>
+    <t>李明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算机与信息技术学院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算机科学与技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生会主席</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分值（减分的话是负数）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖惩细则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>违纪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-2021第一学期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计科1班</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -56,7 +93,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0_);\(0\)"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,6 +109,31 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -95,9 +160,24 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -407,48 +487,95 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="21.125" customWidth="1"/>
+    <col min="1" max="1" width="21.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4">
+        <v>2018</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="5">
+        <v>198003000000</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="G2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="4">
+        <v>20</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>435400</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="G3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="4">
+        <v>-20</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>